--- a/biology/Médecine/Centre_du_vomissement/Centre_du_vomissement.xlsx
+++ b/biology/Médecine/Centre_du_vomissement/Centre_du_vomissement.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le « centre du vomissement » est une structure de l'encéphale qui se charge de contrôler les reflux gastriques.
-C'est un centre afférent et efférent commun, situé dans la moelle allongée à la partie ventrale du tractus solitaire à proximité du centre apneustique et vasomoteur[1].
+C'est un centre afférent et efférent commun, situé dans la moelle allongée à la partie ventrale du tractus solitaire à proximité du centre apneustique et vasomoteur.
 Il est sollicité par quatre voies afférentes :
 la zone gâchette chimioréceptrice (CTZ) située dans l'area postrema du tronc cérébral, au niveau du plancher du 4e ventricule, où il n'y a pas de barrière hémato-encéphalique;
 le système nerveux central ;
 le système vestibulaire ;
-les voies périphériques : tractus digestif, otorhinopharynx, arbre bronchique, tractus urogénital[2].
+les voies périphériques : tractus digestif, otorhinopharynx, arbre bronchique, tractus urogénital.
 </t>
         </is>
       </c>
@@ -517,7 +529,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le centre du vomissement est une structure de la moelle allongée du cerveau qui contrôle le vomissement.
 Il est situé dans une zone assez mal limitée située dans le mésencéphale, dans les stries acoustiques de la fosse rhomboïde, à proximité de l'aire vestibulocochléaire. Il mesure environ 1 mm chez l'humain.
@@ -549,9 +563,11 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>C'est une zone chimiosensible (détection des toxines circulant dans le sang et dans le liquide cérébrospinal). Il est activé par de nombreuses afférences dont l’excitation fait intervenir des neurotransmetteurs différents. À son tour il provoque une excitation vagale qui déclenche le réflexe de vomissement[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>C'est une zone chimiosensible (détection des toxines circulant dans le sang et dans le liquide cérébrospinal). Il est activé par de nombreuses afférences dont l’excitation fait intervenir des neurotransmetteurs différents. À son tour il provoque une excitation vagale qui déclenche le réflexe de vomissement.
 Le centre du vomissement est sollicité par des afférences directes ou indirectes :
 les afférentes directes proviennent de différents niveaux :
 l’otorhinopharynx elles transportent des sensations tactiles, olfactives et gustatives et expliquent les vomissements provoqués par les mauvaises odeurs ou les aliments qui soulèvent le dégoût,
@@ -588,12 +604,14 @@
           <t>Utilité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le « centre du vomissement » contrôle l'appareil digestif entier, et se charge :
 d'éliminer les bactéries ou virus dangereux pour la santé qui aurait attaqué le système digestif ;
 d'éliminer toutes sortes de poisons, toxines reconnus dangereuses par le système immunitaire ;
-lors de troubles médicaux plus intenses, il peut carrément s'agir d'une sur-infection ou de dégâts collatéraux infligés à l'organisme entier ; dans ce cas pour expulser les cellules mortes, le « centre du vomissement » peut agir[4].</t>
+lors de troubles médicaux plus intenses, il peut carrément s'agir d'une sur-infection ou de dégâts collatéraux infligés à l'organisme entier ; dans ce cas pour expulser les cellules mortes, le « centre du vomissement » peut agir.</t>
         </is>
       </c>
     </row>
